--- a/학습자료/단답형/영어_복습_부정사.xlsx
+++ b/학습자료/단답형/영어_복습_부정사.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1973,6 +1973,438 @@
         </is>
       </c>
     </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>be about to [   ] : 막 ~하려 하다
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>부정사</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>be apt to [   ] : ~하는 경향이 있다
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>부정사</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>be free to [   ] : 자유로이 ~하다
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>부정사</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>be likely to [   ] : ~할 것 같다
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>부정사</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>be ready to [   ] : ~할 준비가 되어 있다
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>부정사</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>be sure to [   ] : 반드시 ~하다
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>부정사</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>be willing to [   ] : 기꺼이 ~하다
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>부정사</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>cannot but [   ] : ~하지 않을 수 없다
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>부정사</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>cannot help [   ] : ~하지 않을 수 없다
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>2</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>부정사</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>cannot help but [   ] : ~하지 않을 수 없다
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>부정사</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>have no choice but to [   ] : ~하지 않을 수 없다
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>부정사</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>can't refrain from [   ] : ~하지 않을 수 없다
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>2</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>부정사</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>enough to [   ] : ~할 정도로 충분히 ~한
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>부정사</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>had better [   ] : ~하는 것이 더 낫다
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>부정사</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>have no choice but to [   ] : ~하지 않을 수 없다
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>부정사</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>in order to [   ] : ~하기 위해
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>부정사</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>so as to [   ] : ~하기 위해
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>부정사</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>so ~ as to [   ] : 매우 ~해서 ~하다
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>부정사</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>too ~ to [   ] : 너무 ~해서 ~할 수 없는
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>부정사</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>used to [   ] : ~하곤 했다
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>부정사</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>would rather [   ] : 오히려 ~하고 싶다
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>부정사</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>be the last man to [   ] : ~할 사람이 아니다
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>부정사</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>be cut out to [   ] : ~에 적임이다
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>부정사</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>come to [   ] : ~하게 되다
+1. 동사원형
+2. 동명사
+3. 동사원형, 동명사</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>부정사</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
